--- a/My Activities.xlsx
+++ b/My Activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vijayanand\GenAI Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BF272A-AEAE-4772-BEFB-CF5B890081CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B6AA7C-2E63-420A-9671-D3B79B823076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{4ADEEA24-D4F5-49D4-BD87-EC939E78AE4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{4ADEEA24-D4F5-49D4-BD87-EC939E78AE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="9" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="114">
   <si>
     <t>Day 1</t>
   </si>
@@ -300,6 +300,84 @@
   </si>
   <si>
     <t>GITHUB setup</t>
+  </si>
+  <si>
+    <t>Day 8</t>
+  </si>
+  <si>
+    <t>Traditional AI vs Gen AI</t>
+  </si>
+  <si>
+    <t>Large Language Model</t>
+  </si>
+  <si>
+    <t>Model Types</t>
+  </si>
+  <si>
+    <t>Open Source vs Closed Source</t>
+  </si>
+  <si>
+    <t>Local vs Cloud</t>
+  </si>
+  <si>
+    <t>Purchasing API keys to access Closed Models</t>
+  </si>
+  <si>
+    <t>OpenAI (Apple), Openrouter(Amazon)</t>
+  </si>
+  <si>
+    <t>Hugging Face - Importing a package</t>
+  </si>
+  <si>
+    <t>Ollama - Importing a package</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>GenAI CHAT tools (Chatgpt, Gemini,Perplexity,Qwe,Deepseek,Claude)</t>
+  </si>
+  <si>
+    <t>GenAI Productivity tools (Notion, AI Studio, NotebookLM, Gamma app)</t>
+  </si>
+  <si>
+    <t>Gen AI Coding Assitants (Cursor IDE, Winsurf, Replit)</t>
+  </si>
+  <si>
+    <t>VIBE Coding Tools (Lovable, Bolt AI, v0)</t>
+  </si>
+  <si>
+    <t>VS Code Extensions (Blackbox, Cody, TABNINE)</t>
+  </si>
+  <si>
+    <t>Huggingface Spaces</t>
+  </si>
+  <si>
+    <t>Day 9</t>
+  </si>
+  <si>
+    <t>Prompt (Communication, Instructions, Data retrieval)</t>
+  </si>
+  <si>
+    <t>Prompt Engineering (Templates, Frameworks, Methods)</t>
+  </si>
+  <si>
+    <t>System prompt vs User prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic propmting formula (RTCFR) </t>
+  </si>
+  <si>
+    <t>Role, Task, Context,Few Shots, Report/Tone</t>
+  </si>
+  <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <t>Advance Prompting</t>
+  </si>
+  <si>
+    <t>Prompting</t>
   </si>
 </sst>
 </file>
@@ -355,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,6 +454,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,8 +1652,8 @@
   </sheetPr>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2436,12 +2523,371 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C205C3-8654-4A70-96F0-FF9BA74DA999}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="11"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="71.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>45907</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>45907</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>45907</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>45907</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>45907</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>45908</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>45909</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>45909</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>45909</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>45909</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>45909</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>45910</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>45910</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>45910</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>45910</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>45910</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/My Activities.xlsx
+++ b/My Activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vijayanand\GenAI Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B6AA7C-2E63-420A-9671-D3B79B823076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196603BB-1AD4-45CE-A032-BA7255675794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{4ADEEA24-D4F5-49D4-BD87-EC939E78AE4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{4ADEEA24-D4F5-49D4-BD87-EC939E78AE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="9" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="123">
   <si>
     <t>Day 1</t>
   </si>
@@ -378,6 +378,33 @@
   </si>
   <si>
     <t>Prompting</t>
+  </si>
+  <si>
+    <t>Chain of Thought (COT)</t>
+  </si>
+  <si>
+    <t>Tree of Thought (TOT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReAct prompting </t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <t>OpenAI Playground Account setup for API Key</t>
+  </si>
+  <si>
+    <t>50 questions - Prompt Template practice</t>
+  </si>
+  <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t>Prompt Battle</t>
+  </si>
+  <si>
+    <t>Day 15</t>
   </si>
 </sst>
 </file>
@@ -1652,8 +1679,8 @@
   </sheetPr>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2523,10 +2550,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C205C3-8654-4A70-96F0-FF9BA74DA999}">
-  <dimension ref="A1:D26"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2841,6 +2871,9 @@
       <c r="C22" t="s">
         <v>112</v>
       </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
@@ -2852,6 +2885,9 @@
       <c r="C23" t="s">
         <v>112</v>
       </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
@@ -2863,27 +2899,64 @@
       <c r="C24" t="s">
         <v>112</v>
       </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>45912</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>45913</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2894,21 +2967,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3294F39-8AFC-4FB2-8B37-04D0D6BE2A9B}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="71.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>45915</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C1F4A-8E61-4510-92E8-1A55C0984F70}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2918,9 +3029,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCC6981-26E3-40FC-8203-925CE77BE29C}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2930,9 +3046,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F5F58C-B226-416C-90AC-55761184F7C0}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2942,9 +3063,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28926A6F-A1A1-431E-B756-BA7B7DBAA449}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2954,10 +3080,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7FE554-32BB-4DE8-9776-6857C42A2084}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/My Activities.xlsx
+++ b/My Activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vijayanand\GenAI Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196603BB-1AD4-45CE-A032-BA7255675794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944E2BFB-6CE5-45C5-B98B-ADA098E347D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{4ADEEA24-D4F5-49D4-BD87-EC939E78AE4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{4ADEEA24-D4F5-49D4-BD87-EC939E78AE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="9" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="169">
   <si>
     <t>Day 1</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Client Server Architecture</t>
   </si>
   <si>
-    <t xml:space="preserve"> Uniform Architecture: HTTP method</t>
-  </si>
-  <si>
     <t>Stateless transfer</t>
   </si>
   <si>
@@ -405,6 +402,147 @@
   </si>
   <si>
     <t>Day 15</t>
+  </si>
+  <si>
+    <t>Langchain</t>
+  </si>
+  <si>
+    <t>Langchain Framework</t>
+  </si>
+  <si>
+    <t>Langchain Ecosystem</t>
+  </si>
+  <si>
+    <t>Document Loaders, Document Transformers, Embedding Models</t>
+  </si>
+  <si>
+    <t>Vector Stores, Retievers, Agents, Tools, Memory, Chains</t>
+  </si>
+  <si>
+    <t>Output Parsers, Language Models, Prompts</t>
+  </si>
+  <si>
+    <t>Data Ingestion (txt, pdf, website,research paper, Wiki)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text Splitting </t>
+  </si>
+  <si>
+    <t>Embedding, Why use embedding ?</t>
+  </si>
+  <si>
+    <t>Embedding with OpenAi, with HuggingFace</t>
+  </si>
+  <si>
+    <t>Vector Store Coding with HuggingFace Embedding and Chroma</t>
+  </si>
+  <si>
+    <t>Retriever</t>
+  </si>
+  <si>
+    <t>RAG - Retrieval Augumented Generation</t>
+  </si>
+  <si>
+    <t>How Retrieval works ?</t>
+  </si>
+  <si>
+    <t>Day 16</t>
+  </si>
+  <si>
+    <t>Components of RAG</t>
+  </si>
+  <si>
+    <t>Retriever, Generator, Knowledge Store</t>
+  </si>
+  <si>
+    <t>Types of RAG (Self, Corrective,Fusion,Advanced, Speculative</t>
+  </si>
+  <si>
+    <t>Flowise (chatflow, Agentflow,Agent Execution, Assistants, Marketplaces, Tools)</t>
+  </si>
+  <si>
+    <t>Flowise (Credentials, Variables, API keys, Documentation)</t>
+  </si>
+  <si>
+    <t>Steps to Self-Host</t>
+  </si>
+  <si>
+    <t>Flowise</t>
+  </si>
+  <si>
+    <t>Uniform Architecture: HTTP method</t>
+  </si>
+  <si>
+    <t>Day 17</t>
+  </si>
+  <si>
+    <t>Building a Chatflow in Flowise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dcouments Loaders (Airtable, API loader, Bravesearch, Webscrap, csv,  Firecrawl) </t>
+  </si>
+  <si>
+    <t>Dcouments Loaders (Custom document Loader, Figma,SerpAPI,Spider document loader)</t>
+  </si>
+  <si>
+    <t>Text Splitter (Character Text Splitter, Code Text Splitter, HTML to markdown)</t>
+  </si>
+  <si>
+    <t>Text Splitter (Recursive Character splitter, Token Text Splitter)</t>
+  </si>
+  <si>
+    <t>Day 18</t>
+  </si>
+  <si>
+    <t>Embeddings (AWS Bedrock, Azure OpenAI, Cohere, Google GenAI, Google Vertex AI)</t>
+  </si>
+  <si>
+    <t>Embeddings (Huggingface Inference,Jina, MistralAI, Ollama)</t>
+  </si>
+  <si>
+    <t>Day 19</t>
+  </si>
+  <si>
+    <t>Vector Store (Astradb, FAISS, Chromadb,Pinecone,Qdrant, REDIS,Supabase)</t>
+  </si>
+  <si>
+    <t>Vector Store (In-memory Vector db, Mellisearch, MongoDB,Milvus,Open Search)</t>
+  </si>
+  <si>
+    <t>Vector Store (Postgres, SingleStore)</t>
+  </si>
+  <si>
+    <t>Vector Store in Pinecone</t>
+  </si>
+  <si>
+    <t>Document Stores &amp; configuration of a document store</t>
+  </si>
+  <si>
+    <t>Prompt Chaining</t>
+  </si>
+  <si>
+    <t>Prompt Chaining example with multi-BOTs</t>
+  </si>
+  <si>
+    <t>Output Parser - example with creation of .json file</t>
+  </si>
+  <si>
+    <t>Flowise (Tools, Credentials, API Keys, Market place, Assistants)</t>
+  </si>
+  <si>
+    <t>Langsmith - Analysing chatflows using Langsmith</t>
+  </si>
+  <si>
+    <t>Flowise - Tips &amp; Tricks (Image upload, Speech to text,  Sticky notes, Feedback)</t>
+  </si>
+  <si>
+    <t>Flowise - Tips &amp; Tricks (Starter prompt, Follow-up prompt, Security)</t>
+  </si>
+  <si>
+    <t>Creating a Personal Assistant</t>
+  </si>
+  <si>
+    <t>REDIS Database for storing information</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1677,7 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
@@ -1664,7 +1802,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1679,8 +1817,8 @@
   </sheetPr>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:D57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2217,7 +2355,7 @@
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2245,7 +2383,7 @@
         <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -2270,10 +2408,10 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
         <v>57</v>
-      </c>
-      <c r="D42" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -2284,10 +2422,10 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
         <v>59</v>
-      </c>
-      <c r="D43" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -2298,10 +2436,10 @@
         <v>23</v>
       </c>
       <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
         <v>63</v>
-      </c>
-      <c r="D44" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -2312,10 +2450,10 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
         <v>61</v>
-      </c>
-      <c r="D45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -2326,10 +2464,10 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2340,10 +2478,10 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -2354,10 +2492,10 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -2368,10 +2506,10 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -2382,10 +2520,10 @@
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -2396,10 +2534,10 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -2410,10 +2548,10 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -2424,10 +2562,10 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -2438,10 +2576,10 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -2452,10 +2590,10 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="s">
         <v>75</v>
-      </c>
-      <c r="D55" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -2466,10 +2604,10 @@
         <v>23</v>
       </c>
       <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" t="s">
         <v>77</v>
-      </c>
-      <c r="D56" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2480,10 +2618,10 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -2494,10 +2632,10 @@
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -2505,10 +2643,10 @@
         <v>45906</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
         <v>34</v>
@@ -2519,13 +2657,13 @@
         <v>45906</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -2533,13 +2671,13 @@
         <v>45907</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" t="s">
         <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2556,7 +2694,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A25" sqref="A25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2586,13 +2724,13 @@
         <v>45907</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2600,13 +2738,13 @@
         <v>45907</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2614,13 +2752,13 @@
         <v>45907</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -2628,13 +2766,13 @@
         <v>45907</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2642,13 +2780,13 @@
         <v>45907</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2656,13 +2794,13 @@
         <v>45908</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -2670,13 +2808,13 @@
         <v>45908</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2684,13 +2822,13 @@
         <v>45908</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -2698,13 +2836,13 @@
         <v>45908</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -2712,13 +2850,13 @@
         <v>45908</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
         <v>98</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -2726,13 +2864,13 @@
         <v>45908</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2740,13 +2878,13 @@
         <v>45908</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -2754,13 +2892,13 @@
         <v>45908</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -2768,13 +2906,13 @@
         <v>45908</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -2782,13 +2920,13 @@
         <v>45908</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2796,13 +2934,13 @@
         <v>45909</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2810,13 +2948,13 @@
         <v>45909</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -2824,13 +2962,13 @@
         <v>45909</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2838,13 +2976,13 @@
         <v>45909</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2852,13 +2990,13 @@
         <v>45909</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -2866,13 +3004,13 @@
         <v>45910</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
         <v>111</v>
       </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -2880,13 +3018,13 @@
         <v>45910</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
         <v>111</v>
       </c>
-      <c r="C23" t="s">
-        <v>112</v>
-      </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2894,13 +3032,13 @@
         <v>45910</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
         <v>111</v>
       </c>
-      <c r="C24" t="s">
-        <v>112</v>
-      </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2908,13 +3046,13 @@
         <v>45912</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
         <v>77</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2922,13 +3060,13 @@
         <v>45912</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
         <v>117</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -2936,13 +3074,13 @@
         <v>45912</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2950,13 +3088,13 @@
         <v>45913</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
         <v>120</v>
       </c>
-      <c r="C28" t="s">
-        <v>121</v>
-      </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2968,19 +3106,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3294F39-8AFC-4FB2-8B37-04D0D6BE2A9B}">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="71.54296875" customWidth="1"/>
+    <col min="4" max="4" width="73.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -3002,10 +3140,591 @@
         <v>45915</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
         <v>122</v>
       </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>45915</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>45915</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>45915</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>45915</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>45915</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>45915</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>45915</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>45915</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>45915</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>45916</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>45916</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>45916</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>45916</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>45916</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>45916</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>45916</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>45917</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>45917</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>45917</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>45917</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>45917</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>45917</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>45917</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>45917</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>45917</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>45918</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>45918</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>45918</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>45918</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
+        <v>45918</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
+        <v>45918</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="10">
+        <v>45919</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/My Activities.xlsx
+++ b/My Activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vijayanand\GenAI Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944E2BFB-6CE5-45C5-B98B-ADA098E347D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D9144-1A74-4591-BA72-D9BF59E72D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{4ADEEA24-D4F5-49D4-BD87-EC939E78AE4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{4ADEEA24-D4F5-49D4-BD87-EC939E78AE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="9" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="235">
   <si>
     <t>Day 1</t>
   </si>
@@ -543,6 +543,204 @@
   </si>
   <si>
     <t>REDIS Database for storing information</t>
+  </si>
+  <si>
+    <t>Day 20</t>
+  </si>
+  <si>
+    <t>Corrective RAG (CRAG)</t>
+  </si>
+  <si>
+    <t>Prompt for Corrective RAG (CRAG)</t>
+  </si>
+  <si>
+    <t>Fallback Mechanism (RAG)</t>
+  </si>
+  <si>
+    <t>Primary Retrievaal, Secondary Retrieval, Tertiary, Quadrenary,Final Fallback</t>
+  </si>
+  <si>
+    <t>WeabSearch RAG</t>
+  </si>
+  <si>
+    <t>Old data + Web Search</t>
+  </si>
+  <si>
+    <t>Adaptive RAG</t>
+  </si>
+  <si>
+    <t>Query analysis, Dynamic parameter adjustment, Dynamic strategy selection</t>
+  </si>
+  <si>
+    <t>Simple RAG Chatbot</t>
+  </si>
+  <si>
+    <t>Agentic RAG</t>
+  </si>
+  <si>
+    <t>Agentic RAG example</t>
+  </si>
+  <si>
+    <t>AI Automatiom</t>
+  </si>
+  <si>
+    <t>Day 22</t>
+  </si>
+  <si>
+    <t>Day 23</t>
+  </si>
+  <si>
+    <t>Day 24</t>
+  </si>
+  <si>
+    <t>Building GenAI app using Langchain and Streamlit using Chatgpt, RTCFR for exercises</t>
+  </si>
+  <si>
+    <t>Simple Gen AI App, Code Assistant, Smart Email Writer, Cover Letter</t>
+  </si>
+  <si>
+    <t>Mock Interview, Youtube Summarizer</t>
+  </si>
+  <si>
+    <t>Day 25</t>
+  </si>
+  <si>
+    <t>Automation vs AI Automation</t>
+  </si>
+  <si>
+    <t>Day 29</t>
+  </si>
+  <si>
+    <t>Types of Automation (ETL, UI Automation, API Automation)</t>
+  </si>
+  <si>
+    <t>UI Automation (RPA - Pyautogui, Playwright)</t>
+  </si>
+  <si>
+    <t>API Automation (Flask - HTTP) - Validation/Verification</t>
+  </si>
+  <si>
+    <t>n8n</t>
+  </si>
+  <si>
+    <t>Why n8n ?</t>
+  </si>
+  <si>
+    <t>n8n Platform setup (Localhost, SelfHost, n8n.io)</t>
+  </si>
+  <si>
+    <t>n8n Page Overview (Workflow, Template, Variables,Insights)</t>
+  </si>
+  <si>
+    <t>n8n Page Overview (Help, Report a Bug,About n8n )</t>
+  </si>
+  <si>
+    <t>n8n activation in Settings (License key)</t>
+  </si>
+  <si>
+    <t>Canvas tour n8n</t>
+  </si>
+  <si>
+    <t>Day 30</t>
+  </si>
+  <si>
+    <t>What is a Node ?</t>
+  </si>
+  <si>
+    <t>Types of Nodes (Trigger Node, Regular, Core, Code, Web hook &amp; HTTP, AI nodes)</t>
+  </si>
+  <si>
+    <t>Expressions</t>
+  </si>
+  <si>
+    <t>Day 31</t>
+  </si>
+  <si>
+    <t>My First Workflow</t>
+  </si>
+  <si>
+    <t>IF and LOOP workflow</t>
+  </si>
+  <si>
+    <t>Telegram chatbot in n8n</t>
+  </si>
+  <si>
+    <t>Mastering SET node</t>
+  </si>
+  <si>
+    <t>Master File Operations Node</t>
+  </si>
+  <si>
+    <t>Conditional Logic Node</t>
+  </si>
+  <si>
+    <t>Day 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCALHOST - Live UI Automation using n8n </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELFHOST - HOSTINGER Live UI Automation using n8n </t>
+  </si>
+  <si>
+    <t>Authentication vs Authorization</t>
+  </si>
+  <si>
+    <t>Authtype (Basic, Bearer, Custom, Digest, Header, OAuth1, OAuth2)</t>
+  </si>
+  <si>
+    <t>n8n-Exercise</t>
+  </si>
+  <si>
+    <t>Google nodes, Master AI Node, Gmail Auto Responder, Mastering Google sheets</t>
+  </si>
+  <si>
+    <t>PDF to Summary, Title to Podcast, AI Revenue Generator, AI Invoice Extractor 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Google AD analytics in local setup, How to use n8n templates</t>
+  </si>
+  <si>
+    <t>Day 37</t>
+  </si>
+  <si>
+    <t>AI Agents</t>
+  </si>
+  <si>
+    <t>What is AI Agent ?</t>
+  </si>
+  <si>
+    <t>AI Architecture</t>
+  </si>
+  <si>
+    <t>Build you first Agent</t>
+  </si>
+  <si>
+    <t>Types of AI Agents</t>
+  </si>
+  <si>
+    <t>Types of Memory</t>
+  </si>
+  <si>
+    <t>Conversational Telegram Agent</t>
+  </si>
+  <si>
+    <t>Adding Tools to be a Telegram Agent</t>
+  </si>
+  <si>
+    <t>Voice enabled Jarvis Agent</t>
+  </si>
+  <si>
+    <t>Day 38</t>
+  </si>
+  <si>
+    <t>LLM prompt for JARVIS</t>
+  </si>
+  <si>
+    <t>Free AI Agent - Ollama</t>
+  </si>
+  <si>
+    <t>My RAG Agent</t>
   </si>
 </sst>
 </file>
@@ -598,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -629,6 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3110,8 +3309,8 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3613,10 +3812,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="10">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
         <v>143</v>
@@ -3627,10 +3826,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
         <v>143</v>
@@ -3641,10 +3840,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="10">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s">
         <v>143</v>
@@ -3655,10 +3854,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
         <v>143</v>
@@ -3669,10 +3868,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
         <v>143</v>
@@ -3683,10 +3882,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s">
         <v>143</v>
@@ -3697,10 +3896,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="10">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s">
         <v>143</v>
@@ -3711,10 +3910,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
-        <v>45919</v>
+        <v>45920</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
         <v>76</v>
@@ -3732,16 +3931,176 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C1F4A-8E61-4510-92E8-1A55C0984F70}">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" customWidth="1"/>
+    <col min="4" max="4" width="71.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>45922</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>45922</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>45922</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>45922</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>45923</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>45923</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>45924</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>45924</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>45924</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>45925</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3749,16 +4108,401 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCC6981-26E3-40FC-8203-925CE77BE29C}">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="72.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>45929</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>45929</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>45929</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>45929</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>45929</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>45929</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>45929</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>45929</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>45929</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>45929</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>45930</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>45930</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>45931</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>45931</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>45931</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>45931</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>45931</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>45931</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>45931</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>45932</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>45932</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>45932</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>45932</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>45932</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>45932</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>45932</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3766,16 +4510,190 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F5F58C-B226-416C-90AC-55761184F7C0}">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="4" max="4" width="71.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>45937</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>45937</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>45937</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>45937</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>45937</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>45937</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>45937</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>45937</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>45938</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>45938</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>45938</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/My Activities.xlsx
+++ b/My Activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vijayanand\GenAI Activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D9144-1A74-4591-BA72-D9BF59E72D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032E8767-670B-4621-B65B-516444817DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{4ADEEA24-D4F5-49D4-BD87-EC939E78AE4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{4ADEEA24-D4F5-49D4-BD87-EC939E78AE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="9" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="246">
   <si>
     <t>Day 1</t>
   </si>
@@ -741,6 +741,39 @@
   </si>
   <si>
     <t>My RAG Agent</t>
+  </si>
+  <si>
+    <t>Day 41</t>
+  </si>
+  <si>
+    <t>Database AI Agent (using mysql)</t>
+  </si>
+  <si>
+    <t>MYSQL installation and setup</t>
+  </si>
+  <si>
+    <t>MCP</t>
+  </si>
+  <si>
+    <t>Model Context Protocol (MCP)</t>
+  </si>
+  <si>
+    <t>n8n-MCP Agent</t>
+  </si>
+  <si>
+    <t>MCP Client Server Triggering</t>
+  </si>
+  <si>
+    <t>Integrating MCPs with IDE (cursor)</t>
+  </si>
+  <si>
+    <t>Human in the Loop</t>
+  </si>
+  <si>
+    <t>Fallback AI Model in Agent</t>
+  </si>
+  <si>
+    <t>Building an n8n flow + MicroSaaS</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2049,7 @@
   </sheetPr>
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -4512,10 +4545,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4691,6 +4724,132 @@
       </c>
       <c r="D12" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>45941</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>45941</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>45941</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>45941</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>45941</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>45941</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>45941</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>45941</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>45941</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
